--- a/서비스 청구서_노스트소프트.xlsx
+++ b/서비스 청구서_노스트소프트.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,48 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffd663"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00eeeeee"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -42,12 +74,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="00CCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,92 +555,322 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:H10"/>
+  <dimension ref="A2:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="40" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>(주)카피맨 렌탈 복사기 서비스 비용 청구서</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>*서비스 기간 : 2021년 10월</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="25" customHeight="1">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>고객사</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>서비스 일자</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>서비스 내역</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>서비스 기사</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>유상/무상</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>공급가액(원)</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>부가세(원)</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>합계(원)</t>
         </is>
       </c>
     </row>
+    <row r="6" ht="25" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>노스트소프트</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-11</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>메인보드 교체</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>기사6</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>무상</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>노스트소프트</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-21</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>주유</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>기사2</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>무상</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>노스트소프트</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-25</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>스캐너 교체</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>기사6</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>무상</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="40" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>노스트소프트</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>급지트레이 교체</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>기사3</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>무상</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="40" customHeight="1">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>노스트소프트</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>스캐너 교체(고객과실)</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>기사4</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>유상</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>39900</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>438900</v>
+      </c>
+    </row>
+    <row r="11" ht="40" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>총계</t>
+        </is>
+      </c>
+      <c r="B11" s="6">
+        <f>COUNTA(C6:C10)&amp;"건"</f>
+        <v/>
+      </c>
+      <c r="C11" s="19" t="n"/>
+      <c r="D11" s="19" t="n"/>
+      <c r="E11" s="20" t="n"/>
+      <c r="F11" s="9">
+        <f>SUM(F6:F10)</f>
+        <v/>
+      </c>
+      <c r="G11" s="9">
+        <f>SUM(G6:G10)</f>
+        <v/>
+      </c>
+      <c r="H11" s="9">
+        <f>SUM(H6:H10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="40" customHeight="1"/>
+    <row r="13" ht="40" customHeight="1">
+      <c r="A13" s="10" t="inlineStr">
         <is>
           <t>위 금액을 청구합니다.</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="11" t="inlineStr">
         <is>
           <t>2021년 10월 29일</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="15" ht="40" customHeight="1">
+      <c r="A15" s="12" t="inlineStr">
         <is>
           <t>(주)카피맨 대표이사 김카피(인)</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:H15"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>